--- a/env_cancer_study/data/raw_data/eqi2000_feature_names.xlsx
+++ b/env_cancer_study/data/raw_data/eqi2000_feature_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omm793/Library/Mobile Documents/com~apple~CloudDocs/code/research/paper_repositories/localgraph-paper/env_cancer_study/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A621FA9-BE48-0A42-A1AE-61F103C38AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC311FDF-1E29-7145-82B6-6EBF4E4B1AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" xr2:uid="{142C0318-DF0C-B44D-8268-1BBDA1A349EE}"/>
   </bookViews>
@@ -3344,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB418E00-262F-8047-8D3D-5E101CB43A30}">
   <dimension ref="A1:HV242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9378,16 +9378,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B233" s="8" t="s">
-        <v>928</v>
+        <v>949</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>915</v>
+        <v>950</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>915</v>
+        <v>950</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>915</v>
+        <v>950</v>
       </c>
       <c r="G233" s="8" t="s">
         <v>477</v>
@@ -9397,18 +9397,17 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="4"/>
       <c r="B234" s="8" t="s">
-        <v>929</v>
+        <v>952</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>886</v>
+        <v>951</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>951</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>886</v>
+        <v>951</v>
       </c>
       <c r="G234" s="8" t="s">
         <v>477</v>
@@ -9418,18 +9417,17 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
       <c r="B235" s="8" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>893</v>
+        <v>915</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>915</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>893</v>
+        <v>915</v>
       </c>
       <c r="G235" s="8" t="s">
         <v>477</v>
@@ -9439,17 +9437,18 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" s="4"/>
       <c r="B236" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>909</v>
+        <v>886</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>886</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
       <c r="G236" s="8" t="s">
         <v>477</v>
@@ -9459,17 +9458,18 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" s="4"/>
       <c r="B237" s="8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>910</v>
+        <v>893</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>893</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="G237" s="8" t="s">
         <v>477</v>
@@ -9480,16 +9480,16 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B238" s="8" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G238" s="8" t="s">
         <v>477</v>
@@ -9500,16 +9500,16 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B239" s="8" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G239" s="8" t="s">
         <v>477</v>
@@ -9520,16 +9520,16 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B240" s="8" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="G240" s="8" t="s">
         <v>477</v>
@@ -9540,16 +9540,16 @@
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B241" s="8" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>950</v>
+        <v>912</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>950</v>
+        <v>912</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>950</v>
+        <v>913</v>
       </c>
       <c r="G241" s="8" t="s">
         <v>477</v>
@@ -9560,16 +9560,16 @@
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B242" s="8" t="s">
-        <v>952</v>
+        <v>935</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="G242" s="8" t="s">
         <v>477</v>
